--- a/data/xlsx/P-正确率-高数2024.xlsx
+++ b/data/xlsx/P-正确率-高数2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>汤家凤辅导讲义</t>
+          <t>汤家凤讲义</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>汤家凤基础篇</t>
+          <t>汤家凤基础</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -799,7 +799,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>复习全书基础篇</t>
+          <t>复习全书基础</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -900,7 +900,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1800基础篇</t>
+          <t>1800基础</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1007,7 +1007,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>张宇基础篇</t>
+          <t>张宇基础</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1114,100 +1114,207 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>张宇强化</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12.1-12.30</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>450</v>
+      </c>
+      <c r="E7" t="n">
+        <v>585</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7692</v>
+      </c>
+      <c r="G7" t="n">
+        <v>79</v>
+      </c>
+      <c r="H7" t="n">
+        <v>96</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8229</v>
+      </c>
+      <c r="J7" t="n">
+        <v>78</v>
+      </c>
+      <c r="K7" t="n">
+        <v>97</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8041</v>
+      </c>
+      <c r="M7" t="n">
+        <v>53</v>
+      </c>
+      <c r="N7" t="n">
+        <v>69</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.7681</v>
+      </c>
+      <c r="P7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.6296</v>
+      </c>
+      <c r="S7" t="n">
+        <v>98</v>
+      </c>
+      <c r="T7" t="n">
+        <v>132</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.7423999999999999</v>
+      </c>
+      <c r="V7" t="n">
+        <v>16</v>
+      </c>
+      <c r="W7" t="n">
+        <v>21</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.7619</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.8182</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>77</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.8182</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Sum</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>2086</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2639</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7905</v>
-      </c>
-      <c r="G7" t="n">
-        <v>433</v>
-      </c>
-      <c r="H7" t="n">
-        <v>500</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.866</v>
-      </c>
-      <c r="J7" t="n">
-        <v>471</v>
-      </c>
-      <c r="K7" t="n">
-        <v>555</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8486</v>
-      </c>
-      <c r="M7" t="n">
-        <v>195</v>
-      </c>
-      <c r="N7" t="n">
-        <v>226</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.8628</v>
-      </c>
-      <c r="P7" t="n">
-        <v>164</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>201</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.8159</v>
-      </c>
-      <c r="S7" t="n">
-        <v>337</v>
-      </c>
-      <c r="T7" t="n">
-        <v>469</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.7186</v>
-      </c>
-      <c r="V7" t="n">
-        <v>140</v>
-      </c>
-      <c r="W7" t="n">
-        <v>194</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.7216</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>169</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.7101</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>234</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.641</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>76</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>91</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0.8352000000000001</v>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>2536</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3224</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7866</v>
+      </c>
+      <c r="G8" t="n">
+        <v>512</v>
+      </c>
+      <c r="H8" t="n">
+        <v>596</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.8591</v>
+      </c>
+      <c r="J8" t="n">
+        <v>549</v>
+      </c>
+      <c r="K8" t="n">
+        <v>652</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="M8" t="n">
+        <v>248</v>
+      </c>
+      <c r="N8" t="n">
+        <v>295</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.8407</v>
+      </c>
+      <c r="P8" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>228</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.7939000000000001</v>
+      </c>
+      <c r="S8" t="n">
+        <v>435</v>
+      </c>
+      <c r="T8" t="n">
+        <v>601</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.7238</v>
+      </c>
+      <c r="V8" t="n">
+        <v>156</v>
+      </c>
+      <c r="W8" t="n">
+        <v>215</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.7256</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>165</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>224</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.7366</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>205</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>311</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.6592</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>102</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.8333</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/P-正确率-高数2024.xlsx
+++ b/data/xlsx/P-正确率-高数2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,100 +1221,207 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>武忠祥基础</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.5-1.8</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>300</v>
+      </c>
+      <c r="E8" t="n">
+        <v>316</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9494</v>
+      </c>
+      <c r="G8" t="n">
+        <v>65</v>
+      </c>
+      <c r="H8" t="n">
+        <v>66</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9848</v>
+      </c>
+      <c r="J8" t="n">
+        <v>41</v>
+      </c>
+      <c r="K8" t="n">
+        <v>46</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8913</v>
+      </c>
+      <c r="M8" t="n">
+        <v>26</v>
+      </c>
+      <c r="N8" t="n">
+        <v>27</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="P8" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>27</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="S8" t="n">
+        <v>63</v>
+      </c>
+      <c r="T8" t="n">
+        <v>68</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.9265</v>
+      </c>
+      <c r="V8" t="n">
+        <v>12</v>
+      </c>
+      <c r="W8" t="n">
+        <v>12</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.9258999999999999</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Sum</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>2536</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3224</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7866</v>
-      </c>
-      <c r="G8" t="n">
-        <v>512</v>
-      </c>
-      <c r="H8" t="n">
-        <v>596</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.8591</v>
-      </c>
-      <c r="J8" t="n">
-        <v>549</v>
-      </c>
-      <c r="K8" t="n">
-        <v>652</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="M8" t="n">
-        <v>248</v>
-      </c>
-      <c r="N8" t="n">
-        <v>295</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.8407</v>
-      </c>
-      <c r="P8" t="n">
-        <v>181</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>228</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.7939000000000001</v>
-      </c>
-      <c r="S8" t="n">
-        <v>435</v>
-      </c>
-      <c r="T8" t="n">
-        <v>601</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.7238</v>
-      </c>
-      <c r="V8" t="n">
-        <v>156</v>
-      </c>
-      <c r="W8" t="n">
-        <v>215</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.7256</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>165</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>224</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.7366</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>205</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>311</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.6592</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>102</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0.8333</v>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>2836</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3540</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8011</v>
+      </c>
+      <c r="G9" t="n">
+        <v>577</v>
+      </c>
+      <c r="H9" t="n">
+        <v>662</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.8716</v>
+      </c>
+      <c r="J9" t="n">
+        <v>590</v>
+      </c>
+      <c r="K9" t="n">
+        <v>698</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8453000000000001</v>
+      </c>
+      <c r="M9" t="n">
+        <v>274</v>
+      </c>
+      <c r="N9" t="n">
+        <v>322</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.8509</v>
+      </c>
+      <c r="P9" t="n">
+        <v>207</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>255</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8118</v>
+      </c>
+      <c r="S9" t="n">
+        <v>498</v>
+      </c>
+      <c r="T9" t="n">
+        <v>669</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.7444</v>
+      </c>
+      <c r="V9" t="n">
+        <v>168</v>
+      </c>
+      <c r="W9" t="n">
+        <v>227</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.7401</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>190</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>231</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>338</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.6834</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>118</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.8559</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/P-正确率-高数2024.xlsx
+++ b/data/xlsx/P-正确率-高数2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1328,100 +1328,396 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>复习全书提高</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.8-1.17</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12.16-1.25</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>余炳森1000基础</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2.10-2.17</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>215</v>
+      </c>
+      <c r="E11" t="n">
+        <v>267</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8052</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.7241</v>
+      </c>
+      <c r="J11" t="n">
+        <v>49</v>
+      </c>
+      <c r="K11" t="n">
+        <v>58</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.8448</v>
+      </c>
+      <c r="M11" t="n">
+        <v>21</v>
+      </c>
+      <c r="N11" t="n">
+        <v>25</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.7037</v>
+      </c>
+      <c r="S11" t="n">
+        <v>45</v>
+      </c>
+      <c r="T11" t="n">
+        <v>54</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="V11" t="n">
+        <v>36</v>
+      </c>
+      <c r="W11" t="n">
+        <v>40</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.7272999999999999</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.6667</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>余炳森1000强化</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2.19-2.28</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>318</v>
+      </c>
+      <c r="E12" t="n">
+        <v>415</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.7663</v>
+      </c>
+      <c r="G12" t="n">
+        <v>33</v>
+      </c>
+      <c r="H12" t="n">
+        <v>42</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.7857</v>
+      </c>
+      <c r="J12" t="n">
+        <v>72</v>
+      </c>
+      <c r="K12" t="n">
+        <v>91</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.7912</v>
+      </c>
+      <c r="M12" t="n">
+        <v>36</v>
+      </c>
+      <c r="N12" t="n">
+        <v>45</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P12" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>41</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.6585</v>
+      </c>
+      <c r="S12" t="n">
+        <v>68</v>
+      </c>
+      <c r="T12" t="n">
+        <v>79</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.8608</v>
+      </c>
+      <c r="V12" t="n">
+        <v>44</v>
+      </c>
+      <c r="W12" t="n">
+        <v>60</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.7333</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>39</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.7778</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Sum</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>2836</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3540</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.8011</v>
-      </c>
-      <c r="G9" t="n">
-        <v>577</v>
-      </c>
-      <c r="H9" t="n">
-        <v>662</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.8716</v>
-      </c>
-      <c r="J9" t="n">
-        <v>590</v>
-      </c>
-      <c r="K9" t="n">
-        <v>698</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.8453000000000001</v>
-      </c>
-      <c r="M9" t="n">
-        <v>274</v>
-      </c>
-      <c r="N9" t="n">
-        <v>322</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.8509</v>
-      </c>
-      <c r="P9" t="n">
-        <v>207</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>255</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.8118</v>
-      </c>
-      <c r="S9" t="n">
-        <v>498</v>
-      </c>
-      <c r="T9" t="n">
-        <v>669</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.7444</v>
-      </c>
-      <c r="V9" t="n">
-        <v>168</v>
-      </c>
-      <c r="W9" t="n">
-        <v>227</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.7401</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>3369</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4222</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="G13" t="n">
+        <v>631</v>
+      </c>
+      <c r="H13" t="n">
+        <v>733</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8608</v>
+      </c>
+      <c r="J13" t="n">
+        <v>711</v>
+      </c>
+      <c r="K13" t="n">
+        <v>847</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.8394</v>
+      </c>
+      <c r="M13" t="n">
+        <v>331</v>
+      </c>
+      <c r="N13" t="n">
+        <v>392</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8444</v>
+      </c>
+      <c r="P13" t="n">
+        <v>253</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>323</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.7833</v>
+      </c>
+      <c r="S13" t="n">
+        <v>611</v>
+      </c>
+      <c r="T13" t="n">
+        <v>802</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.7618</v>
+      </c>
+      <c r="V13" t="n">
+        <v>248</v>
+      </c>
+      <c r="W13" t="n">
+        <v>327</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.7584</v>
+      </c>
+      <c r="Y13" t="n">
         <v>190</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z13" t="n">
         <v>251</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA13" t="n">
         <v>0.757</v>
       </c>
-      <c r="AB9" t="n">
-        <v>231</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>338</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.6834</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>118</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.8559</v>
+      <c r="AB13" t="n">
+        <v>271</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>399</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.6792</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>123</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>148</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.8310999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/P-正确率-高数2024.xlsx
+++ b/data/xlsx/P-正确率-高数2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AG14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1624,100 +1624,207 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>张宇基础</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>二刷</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3.1-3.12</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>541</v>
+      </c>
+      <c r="E13" t="n">
+        <v>596</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9077</v>
+      </c>
+      <c r="G13" t="n">
+        <v>143</v>
+      </c>
+      <c r="H13" t="n">
+        <v>155</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9226</v>
+      </c>
+      <c r="J13" t="n">
+        <v>98</v>
+      </c>
+      <c r="K13" t="n">
+        <v>105</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.9333</v>
+      </c>
+      <c r="M13" t="n">
+        <v>36</v>
+      </c>
+      <c r="N13" t="n">
+        <v>36</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>36</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.9167</v>
+      </c>
+      <c r="S13" t="n">
+        <v>105</v>
+      </c>
+      <c r="T13" t="n">
+        <v>117</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.8974</v>
+      </c>
+      <c r="V13" t="n">
+        <v>23</v>
+      </c>
+      <c r="W13" t="n">
+        <v>27</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.8519</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.8048999999999999</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>56</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.8929</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.8696</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Sum</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>3369</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4222</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="G13" t="n">
-        <v>631</v>
-      </c>
-      <c r="H13" t="n">
-        <v>733</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.8608</v>
-      </c>
-      <c r="J13" t="n">
-        <v>711</v>
-      </c>
-      <c r="K13" t="n">
-        <v>847</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.8394</v>
-      </c>
-      <c r="M13" t="n">
-        <v>331</v>
-      </c>
-      <c r="N13" t="n">
-        <v>392</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.8444</v>
-      </c>
-      <c r="P13" t="n">
-        <v>253</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>323</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.7833</v>
-      </c>
-      <c r="S13" t="n">
-        <v>611</v>
-      </c>
-      <c r="T13" t="n">
-        <v>802</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.7618</v>
-      </c>
-      <c r="V13" t="n">
-        <v>248</v>
-      </c>
-      <c r="W13" t="n">
-        <v>327</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.7584</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>190</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>3910</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4818</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8115</v>
+      </c>
+      <c r="G14" t="n">
+        <v>774</v>
+      </c>
+      <c r="H14" t="n">
+        <v>888</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8716</v>
+      </c>
+      <c r="J14" t="n">
+        <v>809</v>
+      </c>
+      <c r="K14" t="n">
+        <v>952</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.8498</v>
+      </c>
+      <c r="M14" t="n">
+        <v>367</v>
+      </c>
+      <c r="N14" t="n">
+        <v>428</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.8575</v>
+      </c>
+      <c r="P14" t="n">
+        <v>286</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>359</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.7967</v>
+      </c>
+      <c r="S14" t="n">
+        <v>716</v>
+      </c>
+      <c r="T14" t="n">
+        <v>919</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.7791</v>
+      </c>
+      <c r="V14" t="n">
         <v>271</v>
       </c>
-      <c r="AC13" t="n">
-        <v>399</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0.6792</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>123</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>148</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0.8310999999999999</v>
+      <c r="W14" t="n">
+        <v>354</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.7655</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>223</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>292</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.7637</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>321</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>455</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.7055</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>143</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>171</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.8363</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/P-正确率-高数2024.xlsx
+++ b/data/xlsx/P-正确率-高数2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG14"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1731,100 +1731,207 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>武忠祥基础</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>二刷</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5.9-5.11</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>315</v>
+      </c>
+      <c r="E14" t="n">
+        <v>316</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9968</v>
+      </c>
+      <c r="G14" t="n">
+        <v>66</v>
+      </c>
+      <c r="H14" t="n">
+        <v>66</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>46</v>
+      </c>
+      <c r="K14" t="n">
+        <v>46</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>27</v>
+      </c>
+      <c r="N14" t="n">
+        <v>27</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>27</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>68</v>
+      </c>
+      <c r="T14" t="n">
+        <v>68</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>12</v>
+      </c>
+      <c r="W14" t="n">
+        <v>12</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Sum</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>3910</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4818</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.8115</v>
-      </c>
-      <c r="G14" t="n">
-        <v>774</v>
-      </c>
-      <c r="H14" t="n">
-        <v>888</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.8716</v>
-      </c>
-      <c r="J14" t="n">
-        <v>809</v>
-      </c>
-      <c r="K14" t="n">
-        <v>952</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.8498</v>
-      </c>
-      <c r="M14" t="n">
-        <v>367</v>
-      </c>
-      <c r="N14" t="n">
-        <v>428</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.8575</v>
-      </c>
-      <c r="P14" t="n">
-        <v>286</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>359</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.7967</v>
-      </c>
-      <c r="S14" t="n">
-        <v>716</v>
-      </c>
-      <c r="T14" t="n">
-        <v>919</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.7791</v>
-      </c>
-      <c r="V14" t="n">
-        <v>271</v>
-      </c>
-      <c r="W14" t="n">
-        <v>354</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.7655</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>223</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>292</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.7637</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>321</v>
-      </c>
-      <c r="AC14" t="n">
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>4225</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5134</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8229</v>
+      </c>
+      <c r="G15" t="n">
+        <v>840</v>
+      </c>
+      <c r="H15" t="n">
+        <v>954</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8804999999999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>855</v>
+      </c>
+      <c r="K15" t="n">
+        <v>998</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.8567</v>
+      </c>
+      <c r="M15" t="n">
+        <v>394</v>
+      </c>
+      <c r="N15" t="n">
         <v>455</v>
       </c>
-      <c r="AD14" t="n">
-        <v>0.7055</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>143</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>171</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0.8363</v>
+      <c r="O15" t="n">
+        <v>0.8659</v>
+      </c>
+      <c r="P15" t="n">
+        <v>313</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>386</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.8109</v>
+      </c>
+      <c r="S15" t="n">
+        <v>784</v>
+      </c>
+      <c r="T15" t="n">
+        <v>987</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.7943</v>
+      </c>
+      <c r="V15" t="n">
+        <v>283</v>
+      </c>
+      <c r="W15" t="n">
+        <v>366</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.7732</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>250</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>319</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.7837</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>347</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>482</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.7199</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>159</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>187</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.8502999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/P-正确率-高数2024.xlsx
+++ b/data/xlsx/P-正确率-高数2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1838,99 +1838,200 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>汤家凤</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>二刷</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5.19-5.22</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>188</v>
+      </c>
+      <c r="E15" t="n">
+        <v>227</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8282</v>
+      </c>
+      <c r="G15" t="n">
+        <v>31</v>
+      </c>
+      <c r="H15" t="n">
+        <v>35</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8857</v>
+      </c>
+      <c r="J15" t="n">
+        <v>68</v>
+      </c>
+      <c r="K15" t="n">
+        <v>73</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.9315</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>14</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="S15" t="n">
+        <v>34</v>
+      </c>
+      <c r="T15" t="n">
+        <v>44</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.7727000000000001</v>
+      </c>
+      <c r="V15" t="n">
+        <v>12</v>
+      </c>
+      <c r="W15" t="n">
+        <v>16</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.6786</v>
+      </c>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Sum</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>4225</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5134</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.8229</v>
-      </c>
-      <c r="G15" t="n">
-        <v>840</v>
-      </c>
-      <c r="H15" t="n">
-        <v>954</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.8804999999999999</v>
-      </c>
-      <c r="J15" t="n">
-        <v>855</v>
-      </c>
-      <c r="K15" t="n">
-        <v>998</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.8567</v>
-      </c>
-      <c r="M15" t="n">
-        <v>394</v>
-      </c>
-      <c r="N15" t="n">
-        <v>455</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.8659</v>
-      </c>
-      <c r="P15" t="n">
-        <v>313</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>386</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.8109</v>
-      </c>
-      <c r="S15" t="n">
-        <v>784</v>
-      </c>
-      <c r="T15" t="n">
-        <v>987</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.7943</v>
-      </c>
-      <c r="V15" t="n">
-        <v>283</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>4413</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5361</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8232</v>
+      </c>
+      <c r="G16" t="n">
+        <v>871</v>
+      </c>
+      <c r="H16" t="n">
+        <v>989</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8807</v>
+      </c>
+      <c r="J16" t="n">
+        <v>923</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1071</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8618</v>
+      </c>
+      <c r="M16" t="n">
+        <v>401</v>
+      </c>
+      <c r="N16" t="n">
+        <v>465</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.8624000000000001</v>
+      </c>
+      <c r="P16" t="n">
+        <v>325</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>400</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="S16" t="n">
+        <v>818</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1031</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.7934</v>
+      </c>
+      <c r="V16" t="n">
+        <v>295</v>
+      </c>
+      <c r="W16" t="n">
+        <v>382</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.7723</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>255</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>326</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.7822</v>
+      </c>
+      <c r="AB16" t="n">
         <v>366</v>
       </c>
-      <c r="X15" t="n">
-        <v>0.7732</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>250</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>319</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.7837</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>347</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>482</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.7199</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AC16" t="n">
+        <v>510</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.7176</v>
+      </c>
+      <c r="AE16" t="n">
         <v>159</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF16" t="n">
         <v>187</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG16" t="n">
         <v>0.8502999999999999</v>
       </c>
     </row>
